--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationrange.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationrange.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -150,10 +150,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:存在する場合、低い値は高よりも低い値を持つものとします / If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>NR and also possibly SN (but see also quantity)</t>
@@ -699,21 +695,21 @@
         <v>44</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -724,25 +720,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -793,13 +789,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -811,19 +807,19 @@
         <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -842,16 +838,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -889,19 +885,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -913,21 +909,21 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -938,7 +934,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -950,16 +946,16 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1009,33 +1005,33 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AK4" t="s" s="2">
+      <c r="AL4" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1046,7 +1042,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1058,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1117,25 +1113,25 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
